--- a/StructureDefinition-snapshot-age-in-months.xlsx
+++ b/StructureDefinition-snapshot-age-in-months.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-20T17:48:04+00:00</t>
+    <t>2021-09-21T12:28:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-snapshot-age-in-months.xlsx
+++ b/StructureDefinition-snapshot-age-in-months.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-21T12:28:41+00:00</t>
+    <t>2021-09-28T19:40:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-snapshot-age-in-months.xlsx
+++ b/StructureDefinition-snapshot-age-in-months.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-28T19:40:31+00:00</t>
+    <t>2021-10-01T15:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-snapshot-age-in-months.xlsx
+++ b/StructureDefinition-snapshot-age-in-months.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-11-19T14:45:01+00:00</t>
+    <t>2021-12-16T17:36:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-snapshot-age-in-months.xlsx
+++ b/StructureDefinition-snapshot-age-in-months.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="103">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,16 +57,19 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-16T17:36:56+00:00</t>
+    <t>2022-01-21T20:46:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>No display for ContactDetail</t>
+    <t>Alvearie Team</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>United States of America</t>
   </si>
   <si>
     <t>Description</t>
@@ -238,9 +241,6 @@
   </si>
   <si>
     <t>*</t>
-  </si>
-  <si>
-    <t>An Extension</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -278,6 +278,9 @@
   <si>
     <t xml:space="preserve">Extension
 </t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t xml:space="preserve">value:url}
@@ -460,7 +463,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -536,98 +539,92 @@
       <c r="A9" t="s" s="2">
         <v>15</v>
       </c>
-      <c r="B9" s="2"/>
+      <c r="B9" t="s" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>18</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>19</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>23</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>24</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="2">
-        <v>34</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -686,203 +683,203 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH2" t="s" s="2">
         <v>76</v>
@@ -891,7 +888,7 @@
         <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3">
@@ -900,23 +897,23 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J3" t="s" s="2">
         <v>80</v>
@@ -930,65 +927,65 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>83</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ3" t="s" s="2">
         <v>84</v>
@@ -1000,107 +997,107 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
         <v>86</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
@@ -1110,75 +1107,75 @@
         <v>79</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
         <v>3</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>79</v>
@@ -1187,113 +1184,113 @@
         <v>79</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-snapshot-age-in-months.xlsx
+++ b/StructureDefinition-snapshot-age-in-months.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0</t>
+    <t>6.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-21T20:46:54+00:00</t>
+    <t>2022-05-31T20:10:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-snapshot-age-in-months.xlsx
+++ b/StructureDefinition-snapshot-age-in-months.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.0</t>
+    <t>6.1.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-31T20:10:14+00:00</t>
+    <t>2022-06-06T15:56:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-snapshot-age-in-months.xlsx
+++ b/StructureDefinition-snapshot-age-in-months.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.1.1</t>
+    <t>7.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Snapshot Age in months</t>
+    <t>Snapshot Age in Months</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-06T15:56:40+00:00</t>
+    <t>2022-09-01T20:48:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -643,42 +643,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.59375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="37.171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="37.17578125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.5703125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="19.625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.18359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.9765625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/StructureDefinition-snapshot-age-in-months.xlsx
+++ b/StructureDefinition-snapshot-age-in-months.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T20:48:10+00:00</t>
+    <t>2022-09-01T21:20:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-snapshot-age-in-months.xlsx
+++ b/StructureDefinition-snapshot-age-in-months.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:20:10+00:00</t>
+    <t>2022-09-01T21:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-snapshot-age-in-months.xlsx
+++ b/StructureDefinition-snapshot-age-in-months.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T21:41:49+00:00</t>
+    <t>2022-09-01T22:10:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-snapshot-age-in-months.xlsx
+++ b/StructureDefinition-snapshot-age-in-months.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-01T22:10:22+00:00</t>
+    <t>2022-09-06T15:46:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-snapshot-age-in-months.xlsx
+++ b/StructureDefinition-snapshot-age-in-months.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T15:46:40+00:00</t>
+    <t>2022-09-06T17:14:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-snapshot-age-in-months.xlsx
+++ b/StructureDefinition-snapshot-age-in-months.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T17:14:02+00:00</t>
+    <t>2022-09-06T21:02:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-snapshot-age-in-months.xlsx
+++ b/StructureDefinition-snapshot-age-in-months.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:02:26+00:00</t>
+    <t>2022-09-06T21:25:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-snapshot-age-in-months.xlsx
+++ b/StructureDefinition-snapshot-age-in-months.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-06T21:25:20+00:00</t>
+    <t>2022-09-07T15:39:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-snapshot-age-in-months.xlsx
+++ b/StructureDefinition-snapshot-age-in-months.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T15:39:45+00:00</t>
+    <t>2022-09-07T17:21:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-snapshot-age-in-months.xlsx
+++ b/StructureDefinition-snapshot-age-in-months.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:21:01+00:00</t>
+    <t>2022-09-07T17:59:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-snapshot-age-in-months.xlsx
+++ b/StructureDefinition-snapshot-age-in-months.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T17:59:32+00:00</t>
+    <t>2022-09-07T18:17:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-snapshot-age-in-months.xlsx
+++ b/StructureDefinition-snapshot-age-in-months.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:17:14+00:00</t>
+    <t>2022-09-07T18:58:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-snapshot-age-in-months.xlsx
+++ b/StructureDefinition-snapshot-age-in-months.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T18:58:38+00:00</t>
+    <t>2022-09-07T20:17:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-snapshot-age-in-months.xlsx
+++ b/StructureDefinition-snapshot-age-in-months.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:17:32+00:00</t>
+    <t>2022-09-07T20:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-snapshot-age-in-months.xlsx
+++ b/StructureDefinition-snapshot-age-in-months.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-07T20:41:11+00:00</t>
+    <t>2022-09-08T16:11:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-snapshot-age-in-months.xlsx
+++ b/StructureDefinition-snapshot-age-in-months.xlsx
@@ -24,13 +24,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ibm.com/fhir/cdm/StructureDefinition/snapshot-age-in-months</t>
+    <t>http://linuxforhealth.org/fhir/cdm/StructureDefinition/snapshot-age-in-months</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>7.0.0</t>
+    <t>8.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-09-08T16:11:15+00:00</t>
+    <t>2022-11-10T16:00:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>Alvearie Team</t>
+    <t>LinuxForHealth Team</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -247,53 +247,53 @@
 </t>
   </si>
   <si>
+    <t>Extension.id</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Extension.extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>Extension.id</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>Extension.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -885,7 +885,7 @@
         <v>76</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>73</v>
@@ -893,7 +893,7 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -904,25 +904,25 @@
         <v>74</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>82</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -973,13 +973,13 @@
         <v>73</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>73</v>
@@ -988,12 +988,12 @@
         <v>73</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
@@ -1016,13 +1016,13 @@
         <v>73</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s" s="2">
         <v>28</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -1061,19 +1061,19 @@
         <v>73</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>88</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>89</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>90</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>91</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>74</v>
@@ -1085,7 +1085,7 @@
         <v>73</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>73</v>
@@ -1101,10 +1101,10 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>73</v>
@@ -1178,10 +1178,10 @@
         <v>92</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
         <v>73</v>
@@ -1206,7 +1206,7 @@
         <v>74</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>73</v>
@@ -1281,7 +1281,7 @@
         <v>74</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
         <v>73</v>
